--- a/Sample/Tables/Object.xlsx
+++ b/Sample/Tables/Object.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">설명</t>
   </si>
@@ -59,6 +59,12 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">SingleColumnObject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleColumnOneOfObject</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -93,6 +99,41 @@
     <t xml:space="preserve">Item1</t>
   </si>
   <si>
+    <t xml:space="preserve">str1 45</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Spring </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">봄 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">0305</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">ObjectItem2</t>
   </si>
   <si>
@@ -103,6 +144,31 @@
   </si>
   <si>
     <t xml:space="preserve">Item2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">str2 99</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Summer 0608 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">여름</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -232,7 +298,7 @@
   <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -279,8 +345,12 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="2"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -301,7 +371,7 @@
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -329,22 +399,26 @@
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>100</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -365,22 +439,26 @@
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>200</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
